--- a/ТЕЛЕМЕТРИЯ/Земля-parsed.xlsx
+++ b/ТЕЛЕМЕТРИЯ/Земля-parsed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ученик 10\Desktop\CanSAD\ТЕЛЕМЕТРИЯ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86B019B1-715E-4A31-9DEE-754EFD4B1D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6AAE41-4F73-4808-A651-841ABAAD9652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5AD3E26F-E3AA-4664-B399-76B9785A54A7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="9">
   <si>
     <t>Sporadic-A2</t>
   </si>
@@ -65,8 +65,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -95,8 +104,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -411,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFAA19B-68BD-4A7B-A3D4-0814D0992244}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,29 +435,29 @@
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -454,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1926</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1.96</v>
@@ -480,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>2950</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1.9</v>
@@ -506,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>3974</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1.96</v>
@@ -532,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>4998</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>1.4</v>
@@ -558,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>6024</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>2.62</v>
@@ -584,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>7049</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>50.08</v>
@@ -610,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>8073</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>100.72</v>
@@ -636,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>9098</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>140.15</v>
@@ -662,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>10122</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>166.95</v>
@@ -688,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>11146</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>183.62</v>
@@ -714,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>12173</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>190.3</v>
@@ -740,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>13197</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>187.49</v>
@@ -766,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>14222</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>174.93</v>
@@ -792,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>15246</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>148.80000000000001</v>
@@ -818,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>16271</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>147.11000000000001</v>
@@ -844,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>17298</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>124.91</v>
@@ -870,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>18322</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>115.99</v>
@@ -896,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>19347</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>90.12</v>
@@ -922,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>20371</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>84.09</v>
@@ -948,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>21395</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>65.83</v>
@@ -974,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>22420</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>46.64</v>
@@ -1000,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>23446</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>39.01</v>
@@ -1026,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="B24">
-        <v>24471</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>25.65</v>
@@ -1052,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>25495</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>8.8800000000000008</v>
@@ -1078,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>26520</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <v>0.91</v>
@@ -1104,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>27544</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>-0.75</v>
@@ -1130,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>28568</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>-0.4</v>
@@ -1151,189 +1163,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>33690</v>
-      </c>
-      <c r="C29">
-        <v>-0.84</v>
-      </c>
-      <c r="D29">
-        <v>5.37</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <v>34714</v>
-      </c>
-      <c r="C30">
-        <v>-1.19</v>
-      </c>
-      <c r="D30">
-        <v>5.37</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31">
-        <v>35740</v>
-      </c>
-      <c r="C31">
-        <v>-0.92</v>
-      </c>
-      <c r="D31">
-        <v>5.37</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>36764</v>
-      </c>
-      <c r="C32">
-        <v>-0.87</v>
-      </c>
-      <c r="D32">
-        <v>5.37</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33">
-        <v>37788</v>
-      </c>
-      <c r="C33">
-        <v>-1.1100000000000001</v>
-      </c>
-      <c r="D33">
-        <v>5.37</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34">
-        <v>38812</v>
-      </c>
-      <c r="C34">
-        <v>-0.77</v>
-      </c>
-      <c r="D34">
-        <v>5.37</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35">
-        <v>39836</v>
-      </c>
-      <c r="C35">
-        <v>-1.3</v>
-      </c>
-      <c r="D35">
-        <v>5.37</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>